--- a/01_Input/00_CO Validation/Yemen - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Yemen - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ERRY 3\benficaries numbers from HQ 3 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{3DE8FC2F-91BA-4E5A-A2A1-F58E56257A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9251040-0477-46C0-AE56-B527062703C9}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{3DE8FC2F-91BA-4E5A-A2A1-F58E56257A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F072974-52DE-4E34-BE2B-4606B36772AE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="142">
   <si>
     <t>Project ID</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Health Services</t>
-  </si>
-  <si>
-    <t>72 by 2018 through ERRY I</t>
   </si>
   <si>
     <t>72 solar-powered vaccine refrigerators installed in health centers, benefiting 60,000 individuals by 2022</t>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>3 solar pumping systems + 1 solar powered desalination systems</t>
+  </si>
+  <si>
+    <t>72 by 2018 through ERRY I</t>
   </si>
   <si>
     <r>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71540FF0-4F8F-4A4D-B57B-3E6D893C973C}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,14 +1754,12 @@
       <c r="F8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="G8" s="21"/>
       <c r="H8" s="26">
         <v>60000</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>25</v>
@@ -1770,7 +1768,7 @@
       <c r="L8" s="54"/>
       <c r="M8" s="46"/>
       <c r="N8" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" s="47" t="s">
         <v>27</v>
@@ -1788,10 +1786,10 @@
       <c r="C9" s="52"/>
       <c r="D9" s="23"/>
       <c r="E9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
@@ -1800,7 +1798,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>25</v>
@@ -1824,10 +1822,10 @@
         <v>135714</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="23">
         <v>2727783</v>
@@ -1836,16 +1834,16 @@
         <v>45</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="26">
         <v>100000</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>25</v>
@@ -1856,7 +1854,7 @@
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>27</v>
@@ -1877,13 +1875,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="H11" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="23" t="s">
@@ -1909,10 +1907,10 @@
       <c r="C12" s="52"/>
       <c r="D12" s="23"/>
       <c r="E12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
@@ -1921,7 +1919,7 @@
         <v>0.3</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>25</v>
@@ -1929,14 +1927,14 @@
       <c r="K12" s="47"/>
       <c r="L12" s="54"/>
       <c r="M12" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="47"/>
       <c r="O12" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="P12" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="Q12" s="47"/>
       <c r="R12" s="47"/>
@@ -1948,10 +1946,10 @@
       <c r="C13" s="52"/>
       <c r="D13" s="23"/>
       <c r="E13" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
@@ -1960,7 +1958,7 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>25</v>
@@ -1968,14 +1966,14 @@
       <c r="K13" s="47"/>
       <c r="L13" s="54"/>
       <c r="M13" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="47" t="s">
         <v>27</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="47"/>
       <c r="R13" s="47"/>
@@ -1987,10 +1985,10 @@
       <c r="C14" s="52"/>
       <c r="D14" s="23"/>
       <c r="E14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
@@ -1999,7 +1997,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>25</v>
@@ -2023,7 +2021,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="29">
         <v>1</v>
@@ -2032,7 +2030,7 @@
         <v>6000</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>25</v>
@@ -2047,7 +2045,7 @@
         <v>27</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
@@ -2058,10 +2056,10 @@
         <v>137393</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="23">
         <v>463769</v>
@@ -2070,7 +2068,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="29">
         <v>1</v>
@@ -2080,7 +2078,7 @@
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="47"/>
       <c r="L16" s="54" t="s">
@@ -2088,13 +2086,13 @@
       </c>
       <c r="M16" s="46"/>
       <c r="N16" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="P16" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -2106,17 +2104,17 @@
       <c r="C17" s="56"/>
       <c r="D17" s="55"/>
       <c r="E17" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
         <v>11200</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="47"/>
@@ -2124,10 +2122,10 @@
       <c r="M17" s="46"/>
       <c r="N17" s="47"/>
       <c r="O17" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="P17" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="Q17" s="47"/>
       <c r="R17" s="47"/>
@@ -2139,30 +2137,28 @@
       <c r="C18" s="56"/>
       <c r="D18" s="55"/>
       <c r="E18" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" s="29">
-        <v>3</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="54"/>
       <c r="M18" s="46"/>
       <c r="N18" s="47"/>
       <c r="O18" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="P18" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="Q18" s="47"/>
       <c r="R18" s="47"/>
@@ -2174,10 +2170,10 @@
       <c r="C19" s="52"/>
       <c r="D19" s="23"/>
       <c r="E19" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="29">
         <v>30</v>
@@ -2187,7 +2183,7 @@
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="54"/>
@@ -2352,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="23" t="s">
@@ -2413,10 +2409,10 @@
         <v>33</v>
       </c>
       <c r="G4" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>84</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>85</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23" t="s">
@@ -2474,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="F6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="H6" s="66" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>88</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="33" t="s">
@@ -2510,13 +2506,13 @@
         <v>33</v>
       </c>
       <c r="G7" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="I7" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="J7" s="33" t="s">
         <v>25</v>
@@ -2545,13 +2541,13 @@
         <v>29</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H8" s="26">
         <v>60000</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>25</v>
@@ -2572,10 +2568,10 @@
       <c r="C9" s="61"/>
       <c r="D9" s="60"/>
       <c r="E9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
@@ -2584,7 +2580,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>25</v>
@@ -2604,10 +2600,10 @@
         <v>135714</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="30">
         <v>2727783</v>
@@ -2616,16 +2612,16 @@
         <v>45</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="26">
         <v>100000</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>25</v>
@@ -2651,13 +2647,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="H11" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="23" t="s">
@@ -2679,10 +2675,10 @@
       <c r="C12" s="31"/>
       <c r="D12" s="30"/>
       <c r="E12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
@@ -2697,13 +2693,13 @@
       <c r="K12" s="24"/>
       <c r="L12" s="58"/>
       <c r="M12" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>64</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="118.5" customHeight="1">
@@ -2712,16 +2708,16 @@
       <c r="C13" s="31"/>
       <c r="D13" s="30"/>
       <c r="E13" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="23" t="s">
@@ -2730,13 +2726,13 @@
       <c r="K13" s="24"/>
       <c r="L13" s="58"/>
       <c r="M13" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="91.5">
@@ -2745,10 +2741,10 @@
       <c r="C14" s="31"/>
       <c r="D14" s="30"/>
       <c r="E14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
@@ -2757,7 +2753,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>25</v>
@@ -2775,13 +2771,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="29">
         <v>1</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="23" t="s">
@@ -2796,7 +2792,7 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="91.5">
@@ -2804,10 +2800,10 @@
         <v>137393</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="30">
         <v>463769</v>
@@ -2816,7 +2812,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="29">
         <v>1</v>
@@ -2826,7 +2822,7 @@
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="57" t="s">
@@ -2834,10 +2830,10 @@
       </c>
       <c r="M16" s="17"/>
       <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s">
         <v>64</v>
-      </c>
-      <c r="P16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2846,7 +2842,7 @@
       <c r="C17" s="61"/>
       <c r="D17" s="60"/>
       <c r="E17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>94</v>
@@ -2856,17 +2852,17 @@
         <v>11200</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
       <c r="L17" s="58"/>
       <c r="M17" s="17"/>
       <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s">
         <v>64</v>
-      </c>
-      <c r="P17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="91.5">
@@ -2875,29 +2871,29 @@
       <c r="C18" s="61"/>
       <c r="D18" s="60"/>
       <c r="E18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="29">
         <v>3</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="58"/>
       <c r="M18" s="17"/>
       <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s">
         <v>64</v>
-      </c>
-      <c r="P18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="91.5">
@@ -2906,10 +2902,10 @@
       <c r="C19" s="31"/>
       <c r="D19" s="30"/>
       <c r="E19" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="29">
         <v>30</v>
@@ -2919,7 +2915,7 @@
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="59"/>
@@ -3125,7 +3121,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>37</v>
@@ -3150,7 +3146,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>101</v>
@@ -3181,7 +3177,7 @@
         <v>103</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>25</v>
@@ -3199,10 +3195,10 @@
         <v>33</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12" t="s">
@@ -3215,16 +3211,16 @@
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="12" t="s">
@@ -3236,10 +3232,10 @@
         <v>135714</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="6">
         <v>2727783</v>
@@ -3248,10 +3244,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>104</v>
@@ -3272,10 +3268,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>106</v>
@@ -3291,10 +3287,10 @@
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="14">
         <v>0</v>
@@ -3313,16 +3309,16 @@
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="14">
         <v>2</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="12" t="s">
@@ -3335,10 +3331,10 @@
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -3347,7 +3343,7 @@
         <v>108</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>25</v>
@@ -3362,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -3380,10 +3376,10 @@
         <v>137393</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="6">
         <v>463769</v>
@@ -3402,7 +3398,7 @@
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="87">
@@ -3411,7 +3407,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>112</v>
@@ -3424,7 +3420,7 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="87">
@@ -3433,10 +3429,10 @@
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="14">
         <v>30</v>
@@ -3446,7 +3442,7 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3506,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="62"/>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
@@ -3566,7 +3562,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="63"/>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
@@ -3597,7 +3593,7 @@
         <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -3606,7 +3602,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="65"/>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>134</v>
@@ -3655,12 +3651,51 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Abdo Seif</DisplayName>
+        <AccountId>1919</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fuad Ali</DisplayName>
+        <AccountId>1396</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mohammed Sallam</DisplayName>
+        <AccountId>2139</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Amal Aldababseh</DisplayName>
+        <AccountId>1045</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3913,55 +3948,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Abdo Seif</DisplayName>
-        <AccountId>1919</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fuad Ali</DisplayName>
-        <AccountId>1396</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mohammed Sallam</DisplayName>
-        <AccountId>2139</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Amal Aldababseh</DisplayName>
-        <AccountId>1045</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED76DDC8-0C2A-42A8-8991-BD9F8D7F2EB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E0B7DD-E5CA-4A63-8AD0-7BC5AD48CEFE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3969,5 +3965,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E0B7DD-E5CA-4A63-8AD0-7BC5AD48CEFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED76DDC8-0C2A-42A8-8991-BD9F8D7F2EB1}"/>
 </file>